--- a/Data/Data cleaned/data_clean_LFP_5.xlsx
+++ b/Data/Data cleaned/data_clean_LFP_5.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +815,158 @@
         <v>3.850221008653308</v>
       </c>
     </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>696.2789185009466</v>
+      </c>
+      <c r="B55">
+        <v>3.761245429091099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>709.2216572157919</v>
+      </c>
+      <c r="B56">
+        <v>3.98679621358538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>722.1640644507248</v>
+      </c>
+      <c r="B57">
+        <v>4.037326873156517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>735.1055636103273</v>
+      </c>
+      <c r="B58">
+        <v>4.082436563064284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>748.047524010881</v>
+      </c>
+      <c r="B59">
+        <v>4.118041929595853</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>760.9906768315349</v>
+      </c>
+      <c r="B60">
+        <v>4.166999861035668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>773.9333624952534</v>
+      </c>
+      <c r="B61">
+        <v>4.211977282890253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>786.8779795147315</v>
+      </c>
+      <c r="B62">
+        <v>4.226795773008184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>799.8238499335417</v>
+      </c>
+      <c r="B63">
+        <v>4.282345323926694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>812.7690060676957</v>
+      </c>
+      <c r="B64">
+        <v>4.370671504052607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>825.7144599879363</v>
+      </c>
+      <c r="B65">
+        <v>4.417570563350676</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>838.6601732826872</v>
+      </c>
+      <c r="B66">
+        <v>4.448022266363727</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>851.6067179515659</v>
+      </c>
+      <c r="B67">
+        <v>4.489934054952056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>864.551818087558</v>
+      </c>
+      <c r="B68">
+        <v>4.498348248606953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>877.4959100105215</v>
+      </c>
+      <c r="B69">
+        <v>4.595227745603856</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>890.4393127982274</v>
+      </c>
+      <c r="B70">
+        <v>4.629157904184708</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>903.3836537408024</v>
+      </c>
+      <c r="B71">
+        <v>4.680511148379747</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>916.1861240800397</v>
+      </c>
+      <c r="B72">
+        <v>4.714079675601559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>929.1310591014768</v>
+      </c>
+      <c r="B73">
+        <v>4.745752945409698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
